--- a/데이터/미세먼지/다합친농도.xlsx
+++ b/데이터/미세먼지/다합친농도.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kang ChanHyuk\project-jipgyo1\데이터\미세먼지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EEEE73-641F-406F-AB28-AEAFF6ED0E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863908AC-EA74-45AD-A826-6756910B11FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="1656" windowWidth="20568" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20090101~20091003" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>일자</t>
   </si>
@@ -29,9 +39,6 @@
   </si>
   <si>
     <t>PM10</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3930"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1263" workbookViewId="0">
-      <selection activeCell="B1277" sqref="B1277"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3066" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1561,8 +1568,9 @@
       <c r="A46" s="2">
         <v>20090213</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>3</v>
+      <c r="B46" s="2">
+        <f>(B45+B49)/2</f>
+        <v>90.5</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2545,8 +2553,9 @@
       <c r="A128" s="2">
         <v>20090506</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>3</v>
+      <c r="B128" s="2">
+        <f t="shared" ref="B128:B129" si="0">(B127+B131)/2</f>
+        <v>63.5</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -2557,8 +2566,9 @@
       <c r="A129" s="2">
         <v>20090507</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>3</v>
+      <c r="B129" s="2">
+        <f t="shared" si="0"/>
+        <v>51.75</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -2773,8 +2783,9 @@
       <c r="A147" s="2">
         <v>20090525</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>3</v>
+      <c r="B147" s="2">
+        <f t="shared" ref="B147:B148" si="1">(B146+B150)/2</f>
+        <v>54</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -2785,8 +2796,9 @@
       <c r="A148" s="2">
         <v>20090526</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>3</v>
+      <c r="B148" s="2">
+        <f t="shared" si="1"/>
+        <v>44.5</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -2977,8 +2989,9 @@
       <c r="A164" s="2">
         <v>20090611</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>3</v>
+      <c r="B164" s="2">
+        <f>(B163+B167)/2</f>
+        <v>53.5</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -3613,8 +3626,9 @@
       <c r="A217" s="2">
         <v>20090803</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>3</v>
+      <c r="B217" s="2">
+        <f>(B216+B220)/2</f>
+        <v>30.5</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -3853,8 +3867,9 @@
       <c r="A237" s="2">
         <v>20090823</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>3</v>
+      <c r="B237" s="2">
+        <f t="shared" ref="B237:B238" si="2">(B236+B240)/2</f>
+        <v>47</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -3865,8 +3880,9 @@
       <c r="A238" s="2">
         <v>20090824</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>3</v>
+      <c r="B238" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -3925,8 +3941,9 @@
       <c r="A243" s="2">
         <v>20090829</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>3</v>
+      <c r="B243" s="2">
+        <f t="shared" ref="B243:B245" si="3">(B242+B246)/2</f>
+        <v>27</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -3937,8 +3954,9 @@
       <c r="A244" s="2">
         <v>20090830</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>3</v>
+      <c r="B244" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -3949,8 +3967,9 @@
       <c r="A245" s="2">
         <v>20090831</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>3</v>
+      <c r="B245" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -4057,8 +4076,9 @@
       <c r="A254" s="2">
         <v>20090909</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>3</v>
+      <c r="B254" s="2">
+        <f>(B253+B257)/2</f>
+        <v>27.5</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -4213,8 +4233,9 @@
       <c r="A267" s="2">
         <v>20090922</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>3</v>
+      <c r="B267" s="2">
+        <f t="shared" ref="B267:B269" si="4">(B266+B270)/2</f>
+        <v>46.5</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -4225,8 +4246,9 @@
       <c r="A268" s="2">
         <v>20090923</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>3</v>
+      <c r="B268" s="2">
+        <f t="shared" si="4"/>
+        <v>51.75</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -4237,8 +4259,9 @@
       <c r="A269" s="2">
         <v>20090924</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>3</v>
+      <c r="B269" s="2">
+        <f t="shared" si="4"/>
+        <v>44.375</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -4473,8 +4496,9 @@
       <c r="A292" s="2">
         <v>20091017</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>3</v>
+      <c r="B292" s="2">
+        <f>(B291+B295)/2</f>
+        <v>69.5</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.4">
@@ -4505,8 +4529,9 @@
       <c r="A296" s="2">
         <v>20091021</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>3</v>
+      <c r="B296" s="2">
+        <f>(B295+B299)/2</f>
+        <v>83.5</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.4">
@@ -5809,8 +5834,9 @@
       <c r="A459" s="2">
         <v>20100402</v>
       </c>
-      <c r="B459" s="2" t="s">
-        <v>3</v>
+      <c r="B459" s="2">
+        <f>(B458+B462)/2</f>
+        <v>57</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.4">
@@ -5905,8 +5931,9 @@
       <c r="A471" s="2">
         <v>20100414</v>
       </c>
-      <c r="B471" s="2" t="s">
-        <v>3</v>
+      <c r="B471" s="2">
+        <f>(B470+B474)/2</f>
+        <v>50.5</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.4">
@@ -5969,16 +5996,18 @@
       <c r="A479" s="2">
         <v>20100422</v>
       </c>
-      <c r="B479" s="2" t="s">
-        <v>3</v>
+      <c r="B479" s="2">
+        <f t="shared" ref="B479:B480" si="5">(B478+B482)/2</f>
+        <v>60</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <v>20100423</v>
       </c>
-      <c r="B480" s="2" t="s">
-        <v>3</v>
+      <c r="B480" s="2">
+        <f t="shared" si="5"/>
+        <v>59.5</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.4">
@@ -6113,16 +6142,18 @@
       <c r="A497" s="2">
         <v>20100510</v>
       </c>
-      <c r="B497" s="2" t="s">
-        <v>3</v>
+      <c r="B497" s="2">
+        <f t="shared" ref="B497:B498" si="6">(B496+B500)/2</f>
+        <v>79</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A498" s="2">
         <v>20100511</v>
       </c>
-      <c r="B498" s="2" t="s">
-        <v>3</v>
+      <c r="B498" s="2">
+        <f t="shared" si="6"/>
+        <v>63</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.4">
@@ -6297,8 +6328,9 @@
       <c r="A520" s="2">
         <v>20100602</v>
       </c>
-      <c r="B520" s="2" t="s">
-        <v>3</v>
+      <c r="B520" s="2">
+        <f>(B519+B523)/2</f>
+        <v>39</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.4">
@@ -7425,8 +7457,9 @@
       <c r="A661" s="2">
         <v>20101021</v>
       </c>
-      <c r="B661" s="2" t="s">
-        <v>3</v>
+      <c r="B661" s="2">
+        <f>(B660+B664)/2</f>
+        <v>60.5</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.4">
@@ -7585,8 +7618,9 @@
       <c r="A681" s="2">
         <v>20101110</v>
       </c>
-      <c r="B681" s="2" t="s">
-        <v>3</v>
+      <c r="B681" s="2">
+        <f>(B680+B684)/2</f>
+        <v>30.0625</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.4">
@@ -7601,16 +7635,18 @@
       <c r="A683" s="2">
         <v>20101112</v>
       </c>
-      <c r="B683" s="2" t="s">
-        <v>3</v>
+      <c r="B683" s="2">
+        <f t="shared" ref="B683:B684" si="7">(B682+B686)/2</f>
+        <v>48.25</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A684" s="2">
         <v>20101113</v>
       </c>
-      <c r="B684" s="2" t="s">
-        <v>3</v>
+      <c r="B684" s="2">
+        <f t="shared" si="7"/>
+        <v>38.125</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.4">
@@ -7625,8 +7661,9 @@
       <c r="A686" s="2">
         <v>20101115</v>
       </c>
-      <c r="B686" s="2" t="s">
-        <v>3</v>
+      <c r="B686" s="2">
+        <f>(B685+B689)/2</f>
+        <v>40.5</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.4">
@@ -7697,16 +7734,18 @@
       <c r="A695" s="2">
         <v>20101124</v>
       </c>
-      <c r="B695" s="2" t="s">
-        <v>3</v>
+      <c r="B695" s="2">
+        <f t="shared" ref="B695:B696" si="8">(B694+B698)/2</f>
+        <v>43</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A696" s="2">
         <v>20101125</v>
       </c>
-      <c r="B696" s="2" t="s">
-        <v>3</v>
+      <c r="B696" s="2">
+        <f t="shared" si="8"/>
+        <v>49</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.4">
@@ -7953,8 +7992,9 @@
       <c r="A727" s="2">
         <v>20101226</v>
       </c>
-      <c r="B727" s="2" t="s">
-        <v>3</v>
+      <c r="B727" s="2">
+        <f>(B726+B730)/2</f>
+        <v>44</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.4">
@@ -8649,8 +8689,9 @@
       <c r="A814" s="2">
         <v>20110323</v>
       </c>
-      <c r="B814" s="2" t="s">
-        <v>3</v>
+      <c r="B814" s="2">
+        <f>(B813+B817)/2</f>
+        <v>43.5</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.4">
@@ -9041,24 +9082,27 @@
       <c r="A863" s="2">
         <v>20110511</v>
       </c>
-      <c r="B863" s="2" t="s">
-        <v>3</v>
+      <c r="B863" s="2">
+        <f t="shared" ref="B863:B865" si="9">(B862+B866)/2</f>
+        <v>67</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A864" s="2">
         <v>20110512</v>
       </c>
-      <c r="B864" s="2" t="s">
-        <v>3</v>
+      <c r="B864" s="2">
+        <f t="shared" si="9"/>
+        <v>86.5</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A865" s="2">
         <v>20110513</v>
       </c>
-      <c r="B865" s="2" t="s">
-        <v>3</v>
+      <c r="B865" s="2">
+        <f t="shared" si="9"/>
+        <v>81.75</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.4">
@@ -9193,16 +9237,18 @@
       <c r="A882" s="2">
         <v>20110530</v>
       </c>
-      <c r="B882" s="2" t="s">
-        <v>3</v>
+      <c r="B882" s="2">
+        <f t="shared" ref="B882:B883" si="10">(B881+B885)/2</f>
+        <v>98</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A883" s="2">
         <v>20110531</v>
       </c>
-      <c r="B883" s="2" t="s">
-        <v>3</v>
+      <c r="B883" s="2">
+        <f t="shared" si="10"/>
+        <v>105</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.4">
@@ -9329,8 +9375,9 @@
       <c r="A899" s="2">
         <v>20110616</v>
       </c>
-      <c r="B899" s="2" t="s">
-        <v>3</v>
+      <c r="B899" s="2">
+        <f>(B898+B902)/2</f>
+        <v>60</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.4">
@@ -9345,8 +9392,9 @@
       <c r="A901" s="2">
         <v>20110618</v>
       </c>
-      <c r="B901" s="2" t="s">
-        <v>3</v>
+      <c r="B901" s="2">
+        <f>(B900+B904)/2</f>
+        <v>44</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.4">
@@ -10609,8 +10657,9 @@
       <c r="A1059" s="2">
         <v>20111123</v>
       </c>
-      <c r="B1059" s="2" t="s">
-        <v>3</v>
+      <c r="B1059" s="2">
+        <f>(B1058+B1062)/2</f>
+        <v>49.5</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.4">
@@ -11217,8 +11266,9 @@
       <c r="A1135" s="2">
         <v>20120207</v>
       </c>
-      <c r="B1135" s="2" t="s">
-        <v>3</v>
+      <c r="B1135" s="2">
+        <f>(B1134+B1138)/2</f>
+        <v>49.5</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.4">
@@ -12065,8 +12115,9 @@
       <c r="A1241" s="2">
         <v>20120523</v>
       </c>
-      <c r="B1241" s="2" t="s">
-        <v>3</v>
+      <c r="B1241" s="2">
+        <f>(B1240+B1244)/2</f>
+        <v>56.5</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.4">
@@ -12329,64 +12380,72 @@
       <c r="A1274" s="2">
         <v>20120625</v>
       </c>
-      <c r="B1274" s="2" t="s">
-        <v>3</v>
+      <c r="B1274" s="2">
+        <f t="shared" ref="B1274:B1281" ca="1" si="11">(B1273+B1277)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1275" s="2">
         <v>20120626</v>
       </c>
-      <c r="B1275" s="2" t="s">
-        <v>3</v>
+      <c r="B1275" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1276" s="2">
         <v>20120627</v>
       </c>
-      <c r="B1276" s="2" t="s">
-        <v>3</v>
+      <c r="B1276" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1277" s="2">
         <v>20120628</v>
       </c>
-      <c r="B1277" s="2" t="s">
-        <v>3</v>
+      <c r="B1277" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1278" s="2">
         <v>20120629</v>
       </c>
-      <c r="B1278" s="2" t="s">
-        <v>3</v>
+      <c r="B1278" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1279" s="2">
         <v>20120630</v>
       </c>
-      <c r="B1279" s="2" t="s">
-        <v>3</v>
+      <c r="B1279" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1280" s="2">
         <v>20120701</v>
       </c>
-      <c r="B1280" s="2" t="s">
-        <v>3</v>
+      <c r="B1280" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1281" s="2">
         <v>20120702</v>
       </c>
-      <c r="B1281" s="2" t="s">
-        <v>3</v>
+      <c r="B1281" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.4">
@@ -14417,8 +14476,9 @@
       <c r="A1535" s="2">
         <v>20130313</v>
       </c>
-      <c r="B1535" s="2" t="s">
-        <v>3</v>
+      <c r="B1535" s="2">
+        <f>(B1534+B1538)/2</f>
+        <v>66.5</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.4">
@@ -15401,8 +15461,9 @@
       <c r="A1658" s="2">
         <v>20130714</v>
       </c>
-      <c r="B1658" s="2" t="s">
-        <v>3</v>
+      <c r="B1658" s="2">
+        <f>(B1657+B1661)/2</f>
+        <v>22</v>
       </c>
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.4">
@@ -15633,40 +15694,45 @@
       <c r="A1687" s="2">
         <v>20130812</v>
       </c>
-      <c r="B1687" s="2" t="s">
-        <v>3</v>
+      <c r="B1687" s="2">
+        <f>(B1686+B1692)/2</f>
+        <v>39.5</v>
       </c>
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1688" s="2">
         <v>20130813</v>
       </c>
-      <c r="B1688" s="2" t="s">
-        <v>3</v>
+      <c r="B1688" s="2">
+        <f>(B1687+B1693)/2</f>
+        <v>40.25</v>
       </c>
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1689" s="2">
         <v>20130814</v>
       </c>
-      <c r="B1689" s="2" t="s">
-        <v>3</v>
+      <c r="B1689" s="2">
+        <f t="shared" ref="B1687:B1691" si="12">(B1688+B1692)/2</f>
+        <v>32.625</v>
       </c>
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1690" s="2">
         <v>20130815</v>
       </c>
-      <c r="B1690" s="2" t="s">
-        <v>3</v>
+      <c r="B1690" s="2">
+        <f t="shared" si="12"/>
+        <v>36.8125</v>
       </c>
     </row>
     <row r="1691" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1691" s="2">
         <v>20130816</v>
       </c>
-      <c r="B1691" s="2" t="s">
-        <v>3</v>
+      <c r="B1691" s="2">
+        <f t="shared" si="12"/>
+        <v>36.40625</v>
       </c>
     </row>
     <row r="1692" spans="1:2" x14ac:dyDescent="0.4">
@@ -15745,8 +15811,9 @@
       <c r="A1701" s="2">
         <v>20130826</v>
       </c>
-      <c r="B1701" s="2" t="s">
-        <v>3</v>
+      <c r="B1701" s="2">
+        <f>(B1700+B1704)/2</f>
+        <v>46</v>
       </c>
     </row>
     <row r="1702" spans="1:2" x14ac:dyDescent="0.4">
@@ -16025,8 +16092,9 @@
       <c r="A1736" s="2">
         <v>20130930</v>
       </c>
-      <c r="B1736" s="2" t="s">
-        <v>3</v>
+      <c r="B1736" s="2">
+        <f>(B1735+B1739)/2</f>
+        <v>23</v>
       </c>
     </row>
     <row r="1737" spans="1:2" x14ac:dyDescent="0.4">
@@ -17281,16 +17349,18 @@
       <c r="A1893" s="2">
         <v>20140306</v>
       </c>
-      <c r="B1893" s="2" t="s">
-        <v>3</v>
+      <c r="B1893" s="2">
+        <f t="shared" ref="B1893:B1894" si="13">(B1892+B1896)/2</f>
+        <v>39.5</v>
       </c>
     </row>
     <row r="1894" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1894" s="2">
         <v>20140307</v>
       </c>
-      <c r="B1894" s="2" t="s">
-        <v>3</v>
+      <c r="B1894" s="2">
+        <f t="shared" si="13"/>
+        <v>39.25</v>
       </c>
     </row>
     <row r="1895" spans="1:2" x14ac:dyDescent="0.4">
@@ -18145,8 +18215,9 @@
       <c r="A2001" s="2">
         <v>20140622</v>
       </c>
-      <c r="B2001" s="2" t="s">
-        <v>3</v>
+      <c r="B2001" s="2">
+        <f>(B2000+B2004)/2</f>
+        <v>45.5</v>
       </c>
     </row>
     <row r="2002" spans="1:2" x14ac:dyDescent="0.4">
@@ -18177,16 +18248,18 @@
       <c r="A2005" s="2">
         <v>20140626</v>
       </c>
-      <c r="B2005" s="2" t="s">
-        <v>3</v>
+      <c r="B2005" s="2">
+        <f t="shared" ref="B2005:B2006" si="14">(B2004+B2008)/2</f>
+        <v>42.5</v>
       </c>
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2006" s="2">
         <v>20140627</v>
       </c>
-      <c r="B2006" s="2" t="s">
-        <v>3</v>
+      <c r="B2006" s="2">
+        <f t="shared" si="14"/>
+        <v>41.25</v>
       </c>
     </row>
     <row r="2007" spans="1:2" x14ac:dyDescent="0.4">
@@ -18241,8 +18314,9 @@
       <c r="A2013" s="2">
         <v>20140704</v>
       </c>
-      <c r="B2013" s="2" t="s">
-        <v>3</v>
+      <c r="B2013" s="2">
+        <f>(B2012+B2016)/2</f>
+        <v>36.5</v>
       </c>
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.4">
@@ -18265,8 +18339,9 @@
       <c r="A2016" s="2">
         <v>20140707</v>
       </c>
-      <c r="B2016" s="2" t="s">
-        <v>3</v>
+      <c r="B2016" s="2">
+        <f>(B2015+B2019)/2</f>
+        <v>34</v>
       </c>
     </row>
     <row r="2017" spans="1:2" x14ac:dyDescent="0.4">
@@ -18433,16 +18508,18 @@
       <c r="A2037" s="2">
         <v>20140728</v>
       </c>
-      <c r="B2037" s="2" t="s">
-        <v>3</v>
+      <c r="B2037" s="2">
+        <f t="shared" ref="B2037:B2038" si="15">(B2036+B2040)/2</f>
+        <v>59.5</v>
       </c>
     </row>
     <row r="2038" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2038" s="2">
         <v>20140729</v>
       </c>
-      <c r="B2038" s="2" t="s">
-        <v>3</v>
+      <c r="B2038" s="2">
+        <f t="shared" si="15"/>
+        <v>41.75</v>
       </c>
     </row>
     <row r="2039" spans="1:2" x14ac:dyDescent="0.4">
@@ -18465,8 +18542,9 @@
       <c r="A2041" s="2">
         <v>20140801</v>
       </c>
-      <c r="B2041" s="2" t="s">
-        <v>3</v>
+      <c r="B2041" s="2">
+        <f>(B2040+B2044)/2</f>
+        <v>24</v>
       </c>
     </row>
     <row r="2042" spans="1:2" x14ac:dyDescent="0.4">
@@ -19345,168 +19423,168 @@
       <c r="A2151" s="2">
         <v>20141119</v>
       </c>
-      <c r="B2151" s="2" t="s">
-        <v>3</v>
+      <c r="B2151" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2152" s="2">
         <v>20141120</v>
       </c>
-      <c r="B2152" s="2" t="s">
-        <v>3</v>
+      <c r="B2152" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2153" s="2">
         <v>20141121</v>
       </c>
-      <c r="B2153" s="2" t="s">
-        <v>3</v>
+      <c r="B2153" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2154" s="2">
         <v>20141122</v>
       </c>
-      <c r="B2154" s="2" t="s">
-        <v>3</v>
+      <c r="B2154" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2155" s="2">
         <v>20141123</v>
       </c>
-      <c r="B2155" s="2" t="s">
-        <v>3</v>
+      <c r="B2155" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2156" s="2">
         <v>20141124</v>
       </c>
-      <c r="B2156" s="2" t="s">
-        <v>3</v>
+      <c r="B2156" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2157" s="2">
         <v>20141125</v>
       </c>
-      <c r="B2157" s="2" t="s">
-        <v>3</v>
+      <c r="B2157" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2158" s="2">
         <v>20141126</v>
       </c>
-      <c r="B2158" s="2" t="s">
-        <v>3</v>
+      <c r="B2158" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2159" s="2">
         <v>20141127</v>
       </c>
-      <c r="B2159" s="2" t="s">
-        <v>3</v>
+      <c r="B2159" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2160" s="2">
         <v>20141128</v>
       </c>
-      <c r="B2160" s="2" t="s">
-        <v>3</v>
+      <c r="B2160" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2161" s="2">
         <v>20141129</v>
       </c>
-      <c r="B2161" s="2" t="s">
-        <v>3</v>
+      <c r="B2161" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2162" s="2">
         <v>20141130</v>
       </c>
-      <c r="B2162" s="2" t="s">
-        <v>3</v>
+      <c r="B2162" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2163" s="2">
         <v>20141201</v>
       </c>
-      <c r="B2163" s="2" t="s">
-        <v>3</v>
+      <c r="B2163" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2164" s="2">
         <v>20141202</v>
       </c>
-      <c r="B2164" s="2" t="s">
-        <v>3</v>
+      <c r="B2164" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2165" s="2">
         <v>20141203</v>
       </c>
-      <c r="B2165" s="2" t="s">
-        <v>3</v>
+      <c r="B2165" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2166" s="2">
         <v>20141204</v>
       </c>
-      <c r="B2166" s="2" t="s">
-        <v>3</v>
+      <c r="B2166" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2167" s="2">
         <v>20141205</v>
       </c>
-      <c r="B2167" s="2" t="s">
-        <v>3</v>
+      <c r="B2167" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2168" s="2">
         <v>20141206</v>
       </c>
-      <c r="B2168" s="2" t="s">
-        <v>3</v>
+      <c r="B2168" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2169" s="2">
         <v>20141207</v>
       </c>
-      <c r="B2169" s="2" t="s">
-        <v>3</v>
+      <c r="B2169" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2170" s="2">
         <v>20141208</v>
       </c>
-      <c r="B2170" s="2" t="s">
-        <v>3</v>
+      <c r="B2170" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2171" s="2">
         <v>20141209</v>
       </c>
-      <c r="B2171" s="2" t="s">
-        <v>3</v>
+      <c r="B2171" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="2172" spans="1:2" x14ac:dyDescent="0.4">
@@ -21025,16 +21103,18 @@
       <c r="A2361" s="2">
         <v>20150617</v>
       </c>
-      <c r="B2361" s="2" t="s">
-        <v>3</v>
+      <c r="B2361" s="2">
+        <f t="shared" ref="B2361:B2362" si="16">(B2360+B2364)/2</f>
+        <v>42.5</v>
       </c>
     </row>
     <row r="2362" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2362" s="2">
         <v>20150618</v>
       </c>
-      <c r="B2362" s="2" t="s">
-        <v>3</v>
+      <c r="B2362" s="2">
+        <f t="shared" si="16"/>
+        <v>32.75</v>
       </c>
     </row>
     <row r="2363" spans="1:2" x14ac:dyDescent="0.4">
@@ -21145,16 +21225,18 @@
       <c r="A2376" s="2">
         <v>20150702</v>
       </c>
-      <c r="B2376" s="2" t="s">
-        <v>3</v>
+      <c r="B2376" s="2">
+        <f t="shared" ref="B2376:B2377" si="17">(B2375+B2379)/2</f>
+        <v>31.5</v>
       </c>
     </row>
     <row r="2377" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2377" s="2">
         <v>20150703</v>
       </c>
-      <c r="B2377" s="2" t="s">
-        <v>3</v>
+      <c r="B2377" s="2">
+        <f t="shared" si="17"/>
+        <v>31.25</v>
       </c>
     </row>
     <row r="2378" spans="1:2" x14ac:dyDescent="0.4">
@@ -21385,40 +21467,40 @@
       <c r="A2406" s="2">
         <v>20150801</v>
       </c>
-      <c r="B2406" s="2" t="s">
-        <v>3</v>
+      <c r="B2406" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="2407" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2407" s="2">
         <v>20150802</v>
       </c>
-      <c r="B2407" s="2" t="s">
-        <v>3</v>
+      <c r="B2407" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="2408" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2408" s="2">
         <v>20150803</v>
       </c>
-      <c r="B2408" s="2" t="s">
-        <v>3</v>
+      <c r="B2408" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="2409" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2409" s="2">
         <v>20150804</v>
       </c>
-      <c r="B2409" s="2" t="s">
-        <v>3</v>
+      <c r="B2409" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="2410" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2410" s="2">
         <v>20150805</v>
       </c>
-      <c r="B2410" s="2" t="s">
-        <v>3</v>
+      <c r="B2410" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="2411" spans="1:2" x14ac:dyDescent="0.4">
@@ -21441,8 +21523,9 @@
       <c r="A2413" s="2">
         <v>20150808</v>
       </c>
-      <c r="B2413" s="2" t="s">
-        <v>3</v>
+      <c r="B2413" s="2">
+        <f>(B2412+B2416)/2</f>
+        <v>45.5</v>
       </c>
     </row>
     <row r="2414" spans="1:2" x14ac:dyDescent="0.4">
@@ -24113,16 +24196,18 @@
       <c r="A2747" s="2">
         <v>20160707</v>
       </c>
-      <c r="B2747" s="2" t="s">
-        <v>3</v>
+      <c r="B2747" s="2">
+        <f t="shared" ref="B2747:B2748" si="18">(B2746+B2750)/2</f>
+        <v>26.5</v>
       </c>
     </row>
     <row r="2748" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2748" s="2">
         <v>20160708</v>
       </c>
-      <c r="B2748" s="2" t="s">
-        <v>3</v>
+      <c r="B2748" s="2">
+        <f t="shared" si="18"/>
+        <v>37.25</v>
       </c>
     </row>
     <row r="2749" spans="1:2" x14ac:dyDescent="0.4">
@@ -24169,16 +24254,18 @@
       <c r="A2754" s="2">
         <v>20160714</v>
       </c>
-      <c r="B2754" s="2" t="s">
-        <v>3</v>
+      <c r="B2754" s="2">
+        <f t="shared" ref="B2754:B2755" si="19">(B2753+B2757)/2</f>
+        <v>22</v>
       </c>
     </row>
     <row r="2755" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2755" s="2">
         <v>20160715</v>
       </c>
-      <c r="B2755" s="2" t="s">
-        <v>3</v>
+      <c r="B2755" s="2">
+        <f t="shared" si="19"/>
+        <v>26</v>
       </c>
     </row>
     <row r="2756" spans="1:2" x14ac:dyDescent="0.4">
@@ -25017,24 +25104,25 @@
       <c r="A2860" s="2">
         <v>20161028</v>
       </c>
-      <c r="B2860" s="2" t="s">
-        <v>3</v>
+      <c r="B2860" s="2">
+        <f t="shared" ref="B2860:B2862" si="20">(B2859+B2863)/2</f>
+        <v>26</v>
       </c>
     </row>
     <row r="2861" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2861" s="2">
         <v>20161029</v>
       </c>
-      <c r="B2861" s="2" t="s">
-        <v>3</v>
+      <c r="B2861" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="2862" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2862" s="2">
         <v>20161030</v>
       </c>
-      <c r="B2862" s="2" t="s">
-        <v>3</v>
+      <c r="B2862" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="2863" spans="1:2" x14ac:dyDescent="0.4">
@@ -25049,32 +25137,36 @@
       <c r="A2864" s="2">
         <v>20161101</v>
       </c>
-      <c r="B2864" s="2" t="s">
-        <v>3</v>
+      <c r="B2864" s="2">
+        <f>(B2863+B2868)/2</f>
+        <v>50.5</v>
       </c>
     </row>
     <row r="2865" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2865" s="2">
         <v>20161102</v>
       </c>
-      <c r="B2865" s="2" t="s">
-        <v>3</v>
+      <c r="B2865" s="2">
+        <f t="shared" ref="B2864:B2867" si="21">(B2864+B2868)/2</f>
+        <v>63.75</v>
       </c>
     </row>
     <row r="2866" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2866" s="2">
         <v>20161103</v>
       </c>
-      <c r="B2866" s="2" t="s">
-        <v>3</v>
+      <c r="B2866" s="2">
+        <f t="shared" si="21"/>
+        <v>49.875</v>
       </c>
     </row>
     <row r="2867" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2867" s="2">
         <v>20161104</v>
       </c>
-      <c r="B2867" s="2" t="s">
-        <v>3</v>
+      <c r="B2867" s="2">
+        <f t="shared" si="21"/>
+        <v>43.4375</v>
       </c>
     </row>
     <row r="2868" spans="1:2" x14ac:dyDescent="0.4">
@@ -26841,16 +26933,18 @@
       <c r="A3088" s="2">
         <v>20170613</v>
       </c>
-      <c r="B3088" s="2" t="s">
-        <v>3</v>
+      <c r="B3088" s="2">
+        <f t="shared" ref="B3088:B3089" si="22">(B3087+B3091)/2</f>
+        <v>47.5</v>
       </c>
     </row>
     <row r="3089" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3089" s="2">
         <v>20170614</v>
       </c>
-      <c r="B3089" s="2" t="s">
-        <v>3</v>
+      <c r="B3089" s="2">
+        <f t="shared" si="22"/>
+        <v>48.25</v>
       </c>
     </row>
     <row r="3090" spans="1:2" x14ac:dyDescent="0.4">
@@ -27025,16 +27119,18 @@
       <c r="A3111" s="2">
         <v>20170706</v>
       </c>
-      <c r="B3111" s="2" t="s">
-        <v>3</v>
+      <c r="B3111" s="2">
+        <f t="shared" ref="B3111:B3112" si="23">(B3110+B3114)/2</f>
+        <v>38.5</v>
       </c>
     </row>
     <row r="3112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3112" s="2">
         <v>20170707</v>
       </c>
-      <c r="B3112" s="2" t="s">
-        <v>3</v>
+      <c r="B3112" s="2">
+        <f t="shared" si="23"/>
+        <v>27.25</v>
       </c>
     </row>
     <row r="3113" spans="1:2" x14ac:dyDescent="0.4">
@@ -27177,16 +27273,18 @@
       <c r="A3130" s="2">
         <v>20170725</v>
       </c>
-      <c r="B3130" s="2" t="s">
-        <v>3</v>
+      <c r="B3130" s="2">
+        <f t="shared" ref="B3130:B3131" si="24">(B3129+B3133)/2</f>
+        <v>38.5</v>
       </c>
     </row>
     <row r="3131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3131" s="2">
         <v>20170726</v>
       </c>
-      <c r="B3131" s="2" t="s">
-        <v>3</v>
+      <c r="B3131" s="2">
+        <f t="shared" si="24"/>
+        <v>32.25</v>
       </c>
     </row>
     <row r="3132" spans="1:2" x14ac:dyDescent="0.4">
@@ -27577,8 +27675,9 @@
       <c r="A3180" s="2">
         <v>20170913</v>
       </c>
-      <c r="B3180" s="2" t="s">
-        <v>3</v>
+      <c r="B3180" s="2">
+        <f>(B3179+B3183)/2</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="3181" spans="1:2" x14ac:dyDescent="0.4">
@@ -27649,8 +27748,9 @@
       <c r="A3189" s="2">
         <v>20170922</v>
       </c>
-      <c r="B3189" s="2" t="s">
-        <v>3</v>
+      <c r="B3189" s="2">
+        <f>(B3188+B3192)/2</f>
+        <v>37</v>
       </c>
     </row>
     <row r="3190" spans="1:2" x14ac:dyDescent="0.4">
@@ -28225,40 +28325,45 @@
       <c r="A3261" s="2">
         <v>20171203</v>
       </c>
-      <c r="B3261" s="2" t="s">
-        <v>3</v>
+      <c r="B3261" s="2">
+        <f>(B3260+B3266)/2</f>
+        <v>36.5</v>
       </c>
     </row>
     <row r="3262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3262" s="2">
         <v>20171204</v>
       </c>
-      <c r="B3262" s="2" t="s">
-        <v>3</v>
+      <c r="B3262" s="2">
+        <f>(B3261+B3267)/2</f>
+        <v>33.75</v>
       </c>
     </row>
     <row r="3263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3263" s="2">
         <v>20171205</v>
       </c>
-      <c r="B3263" s="2" t="s">
-        <v>3</v>
+      <c r="B3263" s="2">
+        <f t="shared" ref="B3261:B3265" si="25">(B3262+B3266)/2</f>
+        <v>32.875</v>
       </c>
     </row>
     <row r="3264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3264" s="2">
         <v>20171206</v>
       </c>
-      <c r="B3264" s="2" t="s">
-        <v>3</v>
+      <c r="B3264" s="2">
+        <f t="shared" si="25"/>
+        <v>31.9375</v>
       </c>
     </row>
     <row r="3265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3265" s="2">
         <v>20171207</v>
       </c>
-      <c r="B3265" s="2" t="s">
-        <v>3</v>
+      <c r="B3265" s="2">
+        <f t="shared" si="25"/>
+        <v>32.46875</v>
       </c>
     </row>
     <row r="3266" spans="1:2" x14ac:dyDescent="0.4">
@@ -28273,8 +28378,9 @@
       <c r="A3267" s="2">
         <v>20171209</v>
       </c>
-      <c r="B3267" s="2" t="s">
-        <v>3</v>
+      <c r="B3267" s="2">
+        <f>(B3266+B3270)/2</f>
+        <v>31</v>
       </c>
     </row>
     <row r="3268" spans="1:2" x14ac:dyDescent="0.4">
@@ -28369,32 +28475,36 @@
       <c r="A3279" s="2">
         <v>20171221</v>
       </c>
-      <c r="B3279" s="2" t="s">
-        <v>3</v>
+      <c r="B3279" s="2">
+        <f t="shared" ref="B3279:B3282" ca="1" si="26">(B3278+B3282)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3280" s="2">
         <v>20171222</v>
       </c>
-      <c r="B3280" s="2" t="s">
-        <v>3</v>
+      <c r="B3280" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3281" s="2">
         <v>20171223</v>
       </c>
-      <c r="B3281" s="2" t="s">
-        <v>3</v>
+      <c r="B3281" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3282" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3282" s="2">
         <v>20171224</v>
       </c>
-      <c r="B3282" s="2" t="s">
-        <v>3</v>
+      <c r="B3282" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3283" spans="1:2" x14ac:dyDescent="0.4">
@@ -28545,8 +28655,9 @@
       <c r="A3301" s="2">
         <v>20180112</v>
       </c>
-      <c r="B3301" s="2" t="s">
-        <v>3</v>
+      <c r="B3301" s="2">
+        <f>(B3300+B3304)/2</f>
+        <v>48.5</v>
       </c>
     </row>
     <row r="3302" spans="1:2" x14ac:dyDescent="0.4">
@@ -28569,8 +28680,9 @@
       <c r="A3304" s="2">
         <v>20180115</v>
       </c>
-      <c r="B3304" s="2" t="s">
-        <v>3</v>
+      <c r="B3304" s="2">
+        <f>(B3303+B3307)/2</f>
+        <v>67</v>
       </c>
     </row>
     <row r="3305" spans="1:2" x14ac:dyDescent="0.4">
@@ -28585,8 +28697,9 @@
       <c r="A3306" s="2">
         <v>20180117</v>
       </c>
-      <c r="B3306" s="2" t="s">
-        <v>3</v>
+      <c r="B3306" s="2">
+        <f>(B3305+B3309)/2</f>
+        <v>98</v>
       </c>
     </row>
     <row r="3307" spans="1:2" x14ac:dyDescent="0.4">
@@ -28769,16 +28882,18 @@
       <c r="A3329" s="2">
         <v>20180209</v>
       </c>
-      <c r="B3329" s="2" t="s">
-        <v>3</v>
+      <c r="B3329" s="2">
+        <f t="shared" ref="B3329:B3330" si="27">(B3328+B3332)/2</f>
+        <v>52.5</v>
       </c>
     </row>
     <row r="3330" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3330" s="2">
         <v>20180210</v>
       </c>
-      <c r="B3330" s="2" t="s">
-        <v>3</v>
+      <c r="B3330" s="2">
+        <f t="shared" si="27"/>
+        <v>52.25</v>
       </c>
     </row>
     <row r="3331" spans="1:2" x14ac:dyDescent="0.4">
@@ -28921,16 +29036,18 @@
       <c r="A3348" s="2">
         <v>20180228</v>
       </c>
-      <c r="B3348" s="2" t="s">
-        <v>3</v>
+      <c r="B3348" s="2">
+        <f t="shared" ref="B3348:B3349" si="28">(B3347+B3351)/2</f>
+        <v>72.5</v>
       </c>
     </row>
     <row r="3349" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3349" s="2">
         <v>20180301</v>
       </c>
-      <c r="B3349" s="2" t="s">
-        <v>3</v>
+      <c r="B3349" s="2">
+        <f t="shared" si="28"/>
+        <v>59.25</v>
       </c>
     </row>
     <row r="3350" spans="1:2" x14ac:dyDescent="0.4">
@@ -28953,8 +29070,9 @@
       <c r="A3352" s="2">
         <v>20180304</v>
       </c>
-      <c r="B3352" s="2" t="s">
-        <v>3</v>
+      <c r="B3352" s="2">
+        <f>(B3351+B3355)/2</f>
+        <v>46</v>
       </c>
     </row>
     <row r="3353" spans="1:2" x14ac:dyDescent="0.4">
@@ -28985,8 +29103,9 @@
       <c r="A3356" s="2">
         <v>20180308</v>
       </c>
-      <c r="B3356" s="2" t="s">
-        <v>3</v>
+      <c r="B3356" s="2">
+        <f>(B3355+B3359)/2</f>
+        <v>45</v>
       </c>
     </row>
     <row r="3357" spans="1:2" x14ac:dyDescent="0.4">
@@ -29001,8 +29120,9 @@
       <c r="A3358" s="2">
         <v>20180310</v>
       </c>
-      <c r="B3358" s="2" t="s">
-        <v>3</v>
+      <c r="B3358" s="2">
+        <f>(B3357+B3361)/2</f>
+        <v>61.5</v>
       </c>
     </row>
     <row r="3359" spans="1:2" x14ac:dyDescent="0.4">
@@ -29057,8 +29177,9 @@
       <c r="A3365" s="2">
         <v>20180317</v>
       </c>
-      <c r="B3365" s="2" t="s">
-        <v>3</v>
+      <c r="B3365" s="2">
+        <f>(B3364+B3368)/2</f>
+        <v>19</v>
       </c>
     </row>
     <row r="3366" spans="1:2" x14ac:dyDescent="0.4">
@@ -29073,8 +29194,9 @@
       <c r="A3367" s="2">
         <v>20180319</v>
       </c>
-      <c r="B3367" s="2" t="s">
-        <v>3</v>
+      <c r="B3367" s="2">
+        <f>(B3366+B3370)/2</f>
+        <v>49.5</v>
       </c>
     </row>
     <row r="3368" spans="1:2" x14ac:dyDescent="0.4">
@@ -29105,8 +29227,9 @@
       <c r="A3371" s="2">
         <v>20180323</v>
       </c>
-      <c r="B3371" s="2" t="s">
-        <v>3</v>
+      <c r="B3371" s="2">
+        <f>(B3370+B3374)/2</f>
+        <v>64.5</v>
       </c>
     </row>
     <row r="3372" spans="1:2" x14ac:dyDescent="0.4">
@@ -29145,8 +29268,9 @@
       <c r="A3376" s="2">
         <v>20180328</v>
       </c>
-      <c r="B3376" s="2" t="s">
-        <v>3</v>
+      <c r="B3376" s="2">
+        <f>(B3375+B3379)/2</f>
+        <v>72</v>
       </c>
     </row>
     <row r="3377" spans="1:2" x14ac:dyDescent="0.4">
@@ -29689,8 +29813,9 @@
       <c r="A3444" s="2">
         <v>20180604</v>
       </c>
-      <c r="B3444" s="2" t="s">
-        <v>3</v>
+      <c r="B3444" s="2">
+        <f>(B3443+B3447)/2</f>
+        <v>40</v>
       </c>
     </row>
     <row r="3445" spans="1:2" x14ac:dyDescent="0.4">
@@ -29857,16 +29982,18 @@
       <c r="A3465" s="2">
         <v>20180625</v>
       </c>
-      <c r="B3465" s="2" t="s">
-        <v>3</v>
+      <c r="B3465" s="2">
+        <f t="shared" ref="B3465:B3466" si="29">(B3464+B3468)/2</f>
+        <v>38</v>
       </c>
     </row>
     <row r="3466" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3466" s="2">
         <v>20180626</v>
       </c>
-      <c r="B3466" s="2" t="s">
-        <v>3</v>
+      <c r="B3466" s="2">
+        <f t="shared" si="29"/>
+        <v>38.5</v>
       </c>
     </row>
     <row r="3467" spans="1:2" x14ac:dyDescent="0.4">
@@ -29929,16 +30056,18 @@
       <c r="A3474" s="2">
         <v>20180704</v>
       </c>
-      <c r="B3474" s="2" t="s">
-        <v>3</v>
+      <c r="B3474" s="2">
+        <f t="shared" ref="B3474:B3475" si="30">(B3473+B3477)/2</f>
+        <v>15</v>
       </c>
     </row>
     <row r="3475" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3475" s="2">
         <v>20180705</v>
       </c>
-      <c r="B3475" s="2" t="s">
-        <v>3</v>
+      <c r="B3475" s="2">
+        <f t="shared" si="30"/>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3476" spans="1:2" x14ac:dyDescent="0.4">
@@ -30273,16 +30402,18 @@
       <c r="A3517" s="2">
         <v>20180816</v>
       </c>
-      <c r="B3517" s="2" t="s">
-        <v>3</v>
+      <c r="B3517" s="2">
+        <f t="shared" ref="B3517:B3518" si="31">(B3516+B3520)/2</f>
+        <v>33.5</v>
       </c>
     </row>
     <row r="3518" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3518" s="2">
         <v>20180817</v>
       </c>
-      <c r="B3518" s="2" t="s">
-        <v>3</v>
+      <c r="B3518" s="2">
+        <f t="shared" si="31"/>
+        <v>36.75</v>
       </c>
     </row>
     <row r="3519" spans="1:2" x14ac:dyDescent="0.4">
@@ -30393,8 +30524,9 @@
       <c r="A3532" s="2">
         <v>20180831</v>
       </c>
-      <c r="B3532" s="2" t="s">
-        <v>3</v>
+      <c r="B3532" s="2">
+        <f>(B3531+B3535)/2</f>
+        <v>24.5</v>
       </c>
     </row>
     <row r="3533" spans="1:2" x14ac:dyDescent="0.4">
@@ -31009,8 +31141,9 @@
       <c r="A3609" s="2">
         <v>20181116</v>
       </c>
-      <c r="B3609" s="2" t="s">
-        <v>3</v>
+      <c r="B3609" s="2">
+        <f>(B3608+B3612)/2</f>
+        <v>47</v>
       </c>
     </row>
     <row r="3610" spans="1:2" x14ac:dyDescent="0.4">
@@ -31241,8 +31374,9 @@
       <c r="A3638" s="2">
         <v>20181215</v>
       </c>
-      <c r="B3638" s="2" t="s">
-        <v>3</v>
+      <c r="B3638" s="2">
+        <f>(B3637+B3641)/2</f>
+        <v>36.5</v>
       </c>
     </row>
     <row r="3639" spans="1:2" x14ac:dyDescent="0.4">
@@ -31297,8 +31431,9 @@
       <c r="A3645" s="2">
         <v>20181222</v>
       </c>
-      <c r="B3645" s="2" t="s">
-        <v>3</v>
+      <c r="B3645" s="2">
+        <f>(B3644+B3648)/2</f>
+        <v>50.5</v>
       </c>
     </row>
     <row r="3646" spans="1:2" x14ac:dyDescent="0.4">
@@ -31465,8 +31600,9 @@
       <c r="A3666" s="2">
         <v>20190112</v>
       </c>
-      <c r="B3666" s="2" t="s">
-        <v>3</v>
+      <c r="B3666" s="2">
+        <f>(B3665+B3669)/2</f>
+        <v>97.5</v>
       </c>
     </row>
     <row r="3667" spans="1:2" x14ac:dyDescent="0.4">
@@ -31769,16 +31905,18 @@
       <c r="A3704" s="2">
         <v>20190219</v>
       </c>
-      <c r="B3704" s="2" t="s">
-        <v>3</v>
+      <c r="B3704" s="2">
+        <f t="shared" ref="B3704:B3705" si="32">(B3703+B3707)/2</f>
+        <v>58</v>
       </c>
     </row>
     <row r="3705" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3705" s="2">
         <v>20190220</v>
       </c>
-      <c r="B3705" s="2" t="s">
-        <v>3</v>
+      <c r="B3705" s="2">
+        <f t="shared" si="32"/>
+        <v>57</v>
       </c>
     </row>
     <row r="3706" spans="1:2" x14ac:dyDescent="0.4">
@@ -31881,8 +32019,9 @@
       <c r="A3718" s="2">
         <v>20190305</v>
       </c>
-      <c r="B3718" s="2" t="s">
-        <v>3</v>
+      <c r="B3718" s="2">
+        <f>(B3717+B3721)/2</f>
+        <v>107.5</v>
       </c>
     </row>
     <row r="3719" spans="1:2" x14ac:dyDescent="0.4">
@@ -33009,16 +33148,18 @@
       <c r="A3859" s="2">
         <v>20190724</v>
       </c>
-      <c r="B3859" s="2" t="s">
-        <v>3</v>
+      <c r="B3859" s="2">
+        <f t="shared" ref="B3859:B3860" si="33">(B3858+B3862)/2</f>
+        <v>23</v>
       </c>
     </row>
     <row r="3860" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3860" s="2">
         <v>20190725</v>
       </c>
-      <c r="B3860" s="2" t="s">
-        <v>3</v>
+      <c r="B3860" s="2">
+        <f t="shared" si="33"/>
+        <v>19</v>
       </c>
     </row>
     <row r="3861" spans="1:2" x14ac:dyDescent="0.4">
@@ -33073,16 +33214,18 @@
       <c r="A3867" s="2">
         <v>20190801</v>
       </c>
-      <c r="B3867" s="2" t="s">
-        <v>3</v>
+      <c r="B3867" s="2">
+        <f t="shared" ref="B3867:B3868" si="34">(B3866+B3870)/2</f>
+        <v>28</v>
       </c>
     </row>
     <row r="3868" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3868" s="2">
         <v>20190802</v>
       </c>
-      <c r="B3868" s="2" t="s">
-        <v>3</v>
+      <c r="B3868" s="2">
+        <f t="shared" si="34"/>
+        <v>36.5</v>
       </c>
     </row>
     <row r="3869" spans="1:2" x14ac:dyDescent="0.4">
@@ -33587,5 +33730,6 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>